--- a/Replication Package/documentation/rider-audits/pooled/codebooks/rider-audits-constructed.xlsx
+++ b/Replication Package/documentation/rider-audits/pooled/codebooks/rider-audits-constructed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133578" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135734" uniqueCount="1409">
   <si>
     <t>name</t>
   </si>
